--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_241.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_241.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29105-d217255-Reviews-Embassy_Suites_by_Hilton_Arcadia_Pasadena_Area-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1041</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Embassy-Suites-By-Hilton-Arcadia-Pasadena-Area.h21593.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_241.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_241.xlsx
@@ -12661,7 +12661,7 @@
         <v>9501</v>
       </c>
       <c r="B2" t="n">
-        <v>143853</v>
+        <v>175101</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -12732,7 +12732,7 @@
         <v>9501</v>
       </c>
       <c r="B3" t="n">
-        <v>143854</v>
+        <v>175102</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -12803,7 +12803,7 @@
         <v>9501</v>
       </c>
       <c r="B4" t="n">
-        <v>143855</v>
+        <v>175103</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -12874,7 +12874,7 @@
         <v>9501</v>
       </c>
       <c r="B5" t="n">
-        <v>143856</v>
+        <v>143925</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -12945,7 +12945,7 @@
         <v>9501</v>
       </c>
       <c r="B6" t="n">
-        <v>143857</v>
+        <v>175104</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -13016,7 +13016,7 @@
         <v>9501</v>
       </c>
       <c r="B7" t="n">
-        <v>143858</v>
+        <v>175105</v>
       </c>
       <c r="C7" t="s">
         <v>82</v>
@@ -13087,7 +13087,7 @@
         <v>9501</v>
       </c>
       <c r="B8" t="n">
-        <v>143859</v>
+        <v>175106</v>
       </c>
       <c r="C8" t="s">
         <v>88</v>
@@ -13225,7 +13225,7 @@
         <v>9501</v>
       </c>
       <c r="B10" t="n">
-        <v>143860</v>
+        <v>175107</v>
       </c>
       <c r="C10" t="s">
         <v>100</v>
@@ -13296,7 +13296,7 @@
         <v>9501</v>
       </c>
       <c r="B11" t="n">
-        <v>143861</v>
+        <v>175108</v>
       </c>
       <c r="C11" t="s">
         <v>106</v>
@@ -13367,7 +13367,7 @@
         <v>9501</v>
       </c>
       <c r="B12" t="n">
-        <v>143862</v>
+        <v>175109</v>
       </c>
       <c r="C12" t="s">
         <v>112</v>
@@ -13499,7 +13499,7 @@
         <v>9501</v>
       </c>
       <c r="B14" t="n">
-        <v>143863</v>
+        <v>175110</v>
       </c>
       <c r="C14" t="s">
         <v>124</v>
@@ -13566,7 +13566,7 @@
         <v>9501</v>
       </c>
       <c r="B15" t="n">
-        <v>143864</v>
+        <v>175111</v>
       </c>
       <c r="C15" t="s">
         <v>132</v>
@@ -13633,7 +13633,7 @@
         <v>9501</v>
       </c>
       <c r="B16" t="n">
-        <v>143865</v>
+        <v>175112</v>
       </c>
       <c r="C16" t="s">
         <v>140</v>
@@ -13694,7 +13694,7 @@
         <v>9501</v>
       </c>
       <c r="B17" t="n">
-        <v>143866</v>
+        <v>175113</v>
       </c>
       <c r="C17" t="s">
         <v>145</v>
@@ -13765,7 +13765,7 @@
         <v>9501</v>
       </c>
       <c r="B18" t="n">
-        <v>143867</v>
+        <v>175114</v>
       </c>
       <c r="C18" t="s">
         <v>151</v>
@@ -13826,7 +13826,7 @@
         <v>9501</v>
       </c>
       <c r="B19" t="n">
-        <v>143868</v>
+        <v>175115</v>
       </c>
       <c r="C19" t="s">
         <v>157</v>
@@ -14031,7 +14031,7 @@
         <v>9501</v>
       </c>
       <c r="B22" t="n">
-        <v>143869</v>
+        <v>175116</v>
       </c>
       <c r="C22" t="s">
         <v>177</v>
@@ -14092,7 +14092,7 @@
         <v>9501</v>
       </c>
       <c r="B23" t="n">
-        <v>143870</v>
+        <v>175117</v>
       </c>
       <c r="C23" t="s">
         <v>184</v>
@@ -14155,7 +14155,7 @@
         <v>9501</v>
       </c>
       <c r="B24" t="n">
-        <v>143871</v>
+        <v>175118</v>
       </c>
       <c r="C24" t="s">
         <v>191</v>
@@ -14297,7 +14297,7 @@
         <v>9501</v>
       </c>
       <c r="B26" t="n">
-        <v>143872</v>
+        <v>175119</v>
       </c>
       <c r="C26" t="s">
         <v>204</v>
@@ -14368,7 +14368,7 @@
         <v>9501</v>
       </c>
       <c r="B27" t="n">
-        <v>143873</v>
+        <v>175120</v>
       </c>
       <c r="C27" t="s">
         <v>212</v>
@@ -14510,7 +14510,7 @@
         <v>9501</v>
       </c>
       <c r="B29" t="n">
-        <v>143874</v>
+        <v>175121</v>
       </c>
       <c r="C29" t="s">
         <v>224</v>
@@ -14575,7 +14575,7 @@
         <v>9501</v>
       </c>
       <c r="B30" t="n">
-        <v>143875</v>
+        <v>175122</v>
       </c>
       <c r="C30" t="s">
         <v>230</v>
@@ -14646,7 +14646,7 @@
         <v>9501</v>
       </c>
       <c r="B31" t="n">
-        <v>143876</v>
+        <v>175123</v>
       </c>
       <c r="C31" t="s">
         <v>236</v>
@@ -14788,7 +14788,7 @@
         <v>9501</v>
       </c>
       <c r="B33" t="n">
-        <v>143877</v>
+        <v>175124</v>
       </c>
       <c r="C33" t="s">
         <v>248</v>
@@ -14859,7 +14859,7 @@
         <v>9501</v>
       </c>
       <c r="B34" t="n">
-        <v>143878</v>
+        <v>175125</v>
       </c>
       <c r="C34" t="s">
         <v>254</v>
@@ -14930,7 +14930,7 @@
         <v>9501</v>
       </c>
       <c r="B35" t="n">
-        <v>143879</v>
+        <v>175126</v>
       </c>
       <c r="C35" t="s">
         <v>259</v>
@@ -15062,7 +15062,7 @@
         <v>9501</v>
       </c>
       <c r="B37" t="n">
-        <v>143880</v>
+        <v>175127</v>
       </c>
       <c r="C37" t="s">
         <v>271</v>
@@ -15188,7 +15188,7 @@
         <v>9501</v>
       </c>
       <c r="B39" t="n">
-        <v>143881</v>
+        <v>175128</v>
       </c>
       <c r="C39" t="s">
         <v>283</v>
@@ -15259,7 +15259,7 @@
         <v>9501</v>
       </c>
       <c r="B40" t="n">
-        <v>143882</v>
+        <v>175129</v>
       </c>
       <c r="C40" t="s">
         <v>290</v>
@@ -15330,7 +15330,7 @@
         <v>9501</v>
       </c>
       <c r="B41" t="n">
-        <v>143883</v>
+        <v>175130</v>
       </c>
       <c r="C41" t="s">
         <v>297</v>
@@ -15391,7 +15391,7 @@
         <v>9501</v>
       </c>
       <c r="B42" t="n">
-        <v>143884</v>
+        <v>143924</v>
       </c>
       <c r="C42" t="s">
         <v>304</v>
@@ -15458,7 +15458,7 @@
         <v>9501</v>
       </c>
       <c r="B43" t="n">
-        <v>143885</v>
+        <v>175131</v>
       </c>
       <c r="C43" t="s">
         <v>311</v>
@@ -15533,7 +15533,7 @@
         <v>9501</v>
       </c>
       <c r="B44" t="n">
-        <v>143886</v>
+        <v>175132</v>
       </c>
       <c r="C44" t="s">
         <v>320</v>
@@ -15604,7 +15604,7 @@
         <v>9501</v>
       </c>
       <c r="B45" t="n">
-        <v>143887</v>
+        <v>143908</v>
       </c>
       <c r="C45" t="s">
         <v>328</v>
@@ -15675,7 +15675,7 @@
         <v>9501</v>
       </c>
       <c r="B46" t="n">
-        <v>143888</v>
+        <v>175133</v>
       </c>
       <c r="C46" t="s">
         <v>333</v>
@@ -15746,7 +15746,7 @@
         <v>9501</v>
       </c>
       <c r="B47" t="n">
-        <v>143889</v>
+        <v>175134</v>
       </c>
       <c r="C47" t="s">
         <v>339</v>
@@ -15817,7 +15817,7 @@
         <v>9501</v>
       </c>
       <c r="B48" t="n">
-        <v>143890</v>
+        <v>175135</v>
       </c>
       <c r="C48" t="s">
         <v>345</v>
@@ -15959,7 +15959,7 @@
         <v>9501</v>
       </c>
       <c r="B50" t="n">
-        <v>143891</v>
+        <v>175136</v>
       </c>
       <c r="C50" t="s">
         <v>359</v>
@@ -16030,7 +16030,7 @@
         <v>9501</v>
       </c>
       <c r="B51" t="n">
-        <v>143892</v>
+        <v>175137</v>
       </c>
       <c r="C51" t="s">
         <v>365</v>
@@ -16166,7 +16166,7 @@
         <v>9501</v>
       </c>
       <c r="B53" t="n">
-        <v>143893</v>
+        <v>175138</v>
       </c>
       <c r="C53" t="s">
         <v>378</v>
@@ -16308,7 +16308,7 @@
         <v>9501</v>
       </c>
       <c r="B55" t="n">
-        <v>143894</v>
+        <v>175139</v>
       </c>
       <c r="C55" t="s">
         <v>391</v>
@@ -16379,7 +16379,7 @@
         <v>9501</v>
       </c>
       <c r="B56" t="n">
-        <v>143895</v>
+        <v>175140</v>
       </c>
       <c r="C56" t="s">
         <v>396</v>
@@ -16517,7 +16517,7 @@
         <v>9501</v>
       </c>
       <c r="B58" t="n">
-        <v>143896</v>
+        <v>175141</v>
       </c>
       <c r="C58" t="s">
         <v>411</v>
@@ -16659,7 +16659,7 @@
         <v>9501</v>
       </c>
       <c r="B60" t="n">
-        <v>143897</v>
+        <v>175142</v>
       </c>
       <c r="C60" t="s">
         <v>423</v>
@@ -16730,7 +16730,7 @@
         <v>9501</v>
       </c>
       <c r="B61" t="n">
-        <v>143898</v>
+        <v>175143</v>
       </c>
       <c r="C61" t="s">
         <v>429</v>
@@ -16801,7 +16801,7 @@
         <v>9501</v>
       </c>
       <c r="B62" t="n">
-        <v>143899</v>
+        <v>175144</v>
       </c>
       <c r="C62" t="s">
         <v>436</v>
@@ -16872,7 +16872,7 @@
         <v>9501</v>
       </c>
       <c r="B63" t="n">
-        <v>143900</v>
+        <v>175145</v>
       </c>
       <c r="C63" t="s">
         <v>442</v>
@@ -16943,7 +16943,7 @@
         <v>9501</v>
       </c>
       <c r="B64" t="n">
-        <v>143901</v>
+        <v>175146</v>
       </c>
       <c r="C64" t="s">
         <v>448</v>
@@ -17008,7 +17008,7 @@
         <v>9501</v>
       </c>
       <c r="B65" t="n">
-        <v>143902</v>
+        <v>175147</v>
       </c>
       <c r="C65" t="s">
         <v>453</v>
@@ -17201,7 +17201,7 @@
         <v>9501</v>
       </c>
       <c r="B68" t="n">
-        <v>143903</v>
+        <v>175148</v>
       </c>
       <c r="C68" t="s">
         <v>473</v>
@@ -17272,7 +17272,7 @@
         <v>9501</v>
       </c>
       <c r="B69" t="n">
-        <v>143904</v>
+        <v>175149</v>
       </c>
       <c r="C69" t="s">
         <v>479</v>
@@ -17343,7 +17343,7 @@
         <v>9501</v>
       </c>
       <c r="B70" t="n">
-        <v>143905</v>
+        <v>175150</v>
       </c>
       <c r="C70" t="s">
         <v>485</v>
@@ -17414,7 +17414,7 @@
         <v>9501</v>
       </c>
       <c r="B71" t="n">
-        <v>143906</v>
+        <v>175151</v>
       </c>
       <c r="C71" t="s">
         <v>491</v>
@@ -17485,7 +17485,7 @@
         <v>9501</v>
       </c>
       <c r="B72" t="n">
-        <v>143907</v>
+        <v>175152</v>
       </c>
       <c r="C72" t="s">
         <v>497</v>
@@ -17556,7 +17556,7 @@
         <v>9501</v>
       </c>
       <c r="B73" t="n">
-        <v>143908</v>
+        <v>175153</v>
       </c>
       <c r="C73" t="s">
         <v>503</v>
@@ -17627,7 +17627,7 @@
         <v>9501</v>
       </c>
       <c r="B74" t="n">
-        <v>143909</v>
+        <v>175154</v>
       </c>
       <c r="C74" t="s">
         <v>508</v>
@@ -17698,7 +17698,7 @@
         <v>9501</v>
       </c>
       <c r="B75" t="n">
-        <v>143910</v>
+        <v>175155</v>
       </c>
       <c r="C75" t="s">
         <v>514</v>
@@ -17763,7 +17763,7 @@
         <v>9501</v>
       </c>
       <c r="B76" t="n">
-        <v>143911</v>
+        <v>175156</v>
       </c>
       <c r="C76" t="s">
         <v>520</v>
@@ -17824,7 +17824,7 @@
         <v>9501</v>
       </c>
       <c r="B77" t="n">
-        <v>143912</v>
+        <v>175157</v>
       </c>
       <c r="C77" t="s">
         <v>526</v>
@@ -17958,7 +17958,7 @@
         <v>9501</v>
       </c>
       <c r="B79" t="n">
-        <v>143913</v>
+        <v>175158</v>
       </c>
       <c r="C79" t="s">
         <v>539</v>
@@ -18029,7 +18029,7 @@
         <v>9501</v>
       </c>
       <c r="B80" t="n">
-        <v>143914</v>
+        <v>175159</v>
       </c>
       <c r="C80" t="s">
         <v>544</v>
@@ -18100,7 +18100,7 @@
         <v>9501</v>
       </c>
       <c r="B81" t="n">
-        <v>143915</v>
+        <v>175160</v>
       </c>
       <c r="C81" t="s">
         <v>550</v>
@@ -18242,7 +18242,7 @@
         <v>9501</v>
       </c>
       <c r="B83" t="n">
-        <v>143916</v>
+        <v>175161</v>
       </c>
       <c r="C83" t="s">
         <v>562</v>
@@ -18313,7 +18313,7 @@
         <v>9501</v>
       </c>
       <c r="B84" t="n">
-        <v>143917</v>
+        <v>175162</v>
       </c>
       <c r="C84" t="s">
         <v>568</v>
@@ -18380,7 +18380,7 @@
         <v>9501</v>
       </c>
       <c r="B85" t="n">
-        <v>143918</v>
+        <v>175163</v>
       </c>
       <c r="C85" t="s">
         <v>574</v>
@@ -18451,7 +18451,7 @@
         <v>9501</v>
       </c>
       <c r="B86" t="n">
-        <v>143919</v>
+        <v>175164</v>
       </c>
       <c r="C86" t="s">
         <v>580</v>
@@ -18522,7 +18522,7 @@
         <v>9501</v>
       </c>
       <c r="B87" t="n">
-        <v>143920</v>
+        <v>175165</v>
       </c>
       <c r="C87" t="s">
         <v>586</v>
@@ -18583,7 +18583,7 @@
         <v>9501</v>
       </c>
       <c r="B88" t="n">
-        <v>143921</v>
+        <v>175166</v>
       </c>
       <c r="C88" t="s">
         <v>594</v>
@@ -18654,7 +18654,7 @@
         <v>9501</v>
       </c>
       <c r="B89" t="n">
-        <v>143922</v>
+        <v>175167</v>
       </c>
       <c r="C89" t="s">
         <v>599</v>
@@ -18725,7 +18725,7 @@
         <v>9501</v>
       </c>
       <c r="B90" t="n">
-        <v>143923</v>
+        <v>175168</v>
       </c>
       <c r="C90" t="s">
         <v>605</v>
@@ -18796,7 +18796,7 @@
         <v>9501</v>
       </c>
       <c r="B91" t="n">
-        <v>143924</v>
+        <v>175169</v>
       </c>
       <c r="C91" t="s">
         <v>611</v>
@@ -18867,7 +18867,7 @@
         <v>9501</v>
       </c>
       <c r="B92" t="n">
-        <v>143925</v>
+        <v>175170</v>
       </c>
       <c r="C92" t="s">
         <v>616</v>
@@ -18938,7 +18938,7 @@
         <v>9501</v>
       </c>
       <c r="B93" t="n">
-        <v>143926</v>
+        <v>175171</v>
       </c>
       <c r="C93" t="s">
         <v>621</v>
@@ -19005,7 +19005,7 @@
         <v>9501</v>
       </c>
       <c r="B94" t="n">
-        <v>143927</v>
+        <v>175172</v>
       </c>
       <c r="C94" t="s">
         <v>628</v>
@@ -19066,7 +19066,7 @@
         <v>9501</v>
       </c>
       <c r="B95" t="n">
-        <v>143928</v>
+        <v>175173</v>
       </c>
       <c r="C95" t="s">
         <v>635</v>
@@ -19137,7 +19137,7 @@
         <v>9501</v>
       </c>
       <c r="B96" t="n">
-        <v>143929</v>
+        <v>175174</v>
       </c>
       <c r="C96" t="s">
         <v>642</v>
@@ -19208,7 +19208,7 @@
         <v>9501</v>
       </c>
       <c r="B97" t="n">
-        <v>143930</v>
+        <v>175175</v>
       </c>
       <c r="C97" t="s">
         <v>648</v>
@@ -19279,7 +19279,7 @@
         <v>9501</v>
       </c>
       <c r="B98" t="n">
-        <v>143931</v>
+        <v>175176</v>
       </c>
       <c r="C98" t="s">
         <v>654</v>
@@ -19350,7 +19350,7 @@
         <v>9501</v>
       </c>
       <c r="B99" t="n">
-        <v>143932</v>
+        <v>175177</v>
       </c>
       <c r="C99" t="s">
         <v>660</v>
@@ -19421,7 +19421,7 @@
         <v>9501</v>
       </c>
       <c r="B100" t="n">
-        <v>143933</v>
+        <v>175178</v>
       </c>
       <c r="C100" t="s">
         <v>666</v>
@@ -19492,7 +19492,7 @@
         <v>9501</v>
       </c>
       <c r="B101" t="n">
-        <v>143934</v>
+        <v>175179</v>
       </c>
       <c r="C101" t="s">
         <v>672</v>
@@ -19843,7 +19843,7 @@
         <v>9501</v>
       </c>
       <c r="B106" t="n">
-        <v>143935</v>
+        <v>175180</v>
       </c>
       <c r="C106" t="s">
         <v>703</v>
@@ -19985,7 +19985,7 @@
         <v>9501</v>
       </c>
       <c r="B108" t="n">
-        <v>143936</v>
+        <v>175181</v>
       </c>
       <c r="C108" t="s">
         <v>715</v>
@@ -20056,7 +20056,7 @@
         <v>9501</v>
       </c>
       <c r="B109" t="n">
-        <v>143937</v>
+        <v>175182</v>
       </c>
       <c r="C109" t="s">
         <v>721</v>
@@ -20123,7 +20123,7 @@
         <v>9501</v>
       </c>
       <c r="B110" t="n">
-        <v>143938</v>
+        <v>175183</v>
       </c>
       <c r="C110" t="s">
         <v>728</v>
@@ -20194,7 +20194,7 @@
         <v>9501</v>
       </c>
       <c r="B111" t="n">
-        <v>143939</v>
+        <v>175184</v>
       </c>
       <c r="C111" t="s">
         <v>737</v>
@@ -20344,7 +20344,7 @@
         <v>9501</v>
       </c>
       <c r="B113" t="n">
-        <v>143940</v>
+        <v>175185</v>
       </c>
       <c r="C113" t="s">
         <v>750</v>
@@ -20419,7 +20419,7 @@
         <v>9501</v>
       </c>
       <c r="B114" t="n">
-        <v>143941</v>
+        <v>175186</v>
       </c>
       <c r="C114" t="s">
         <v>759</v>
@@ -20494,7 +20494,7 @@
         <v>9501</v>
       </c>
       <c r="B115" t="n">
-        <v>143942</v>
+        <v>175187</v>
       </c>
       <c r="C115" t="s">
         <v>766</v>
@@ -20569,7 +20569,7 @@
         <v>9501</v>
       </c>
       <c r="B116" t="n">
-        <v>143943</v>
+        <v>175188</v>
       </c>
       <c r="C116" t="s">
         <v>776</v>
@@ -20644,7 +20644,7 @@
         <v>9501</v>
       </c>
       <c r="B117" t="n">
-        <v>143944</v>
+        <v>175189</v>
       </c>
       <c r="C117" t="s">
         <v>783</v>
@@ -20784,7 +20784,7 @@
         <v>9501</v>
       </c>
       <c r="B119" t="n">
-        <v>143945</v>
+        <v>175190</v>
       </c>
       <c r="C119" t="s">
         <v>797</v>
@@ -20859,7 +20859,7 @@
         <v>9501</v>
       </c>
       <c r="B120" t="n">
-        <v>143946</v>
+        <v>175191</v>
       </c>
       <c r="C120" t="s">
         <v>806</v>
@@ -20934,7 +20934,7 @@
         <v>9501</v>
       </c>
       <c r="B121" t="n">
-        <v>143947</v>
+        <v>175192</v>
       </c>
       <c r="C121" t="s">
         <v>815</v>
@@ -21009,7 +21009,7 @@
         <v>9501</v>
       </c>
       <c r="B122" t="n">
-        <v>143948</v>
+        <v>175193</v>
       </c>
       <c r="C122" t="s">
         <v>822</v>
@@ -21080,7 +21080,7 @@
         <v>9501</v>
       </c>
       <c r="B123" t="n">
-        <v>143949</v>
+        <v>175194</v>
       </c>
       <c r="C123" t="s">
         <v>829</v>
@@ -21147,7 +21147,7 @@
         <v>9501</v>
       </c>
       <c r="B124" t="n">
-        <v>143950</v>
+        <v>175195</v>
       </c>
       <c r="C124" t="s">
         <v>836</v>
@@ -21218,7 +21218,7 @@
         <v>9501</v>
       </c>
       <c r="B125" t="n">
-        <v>143951</v>
+        <v>175196</v>
       </c>
       <c r="C125" t="s">
         <v>841</v>
@@ -21289,7 +21289,7 @@
         <v>9501</v>
       </c>
       <c r="B126" t="n">
-        <v>143952</v>
+        <v>175197</v>
       </c>
       <c r="C126" t="s">
         <v>847</v>
@@ -21360,7 +21360,7 @@
         <v>9501</v>
       </c>
       <c r="B127" t="n">
-        <v>143953</v>
+        <v>175198</v>
       </c>
       <c r="C127" t="s">
         <v>853</v>
@@ -21431,7 +21431,7 @@
         <v>9501</v>
       </c>
       <c r="B128" t="n">
-        <v>143954</v>
+        <v>175199</v>
       </c>
       <c r="C128" t="s">
         <v>858</v>
@@ -21502,7 +21502,7 @@
         <v>9501</v>
       </c>
       <c r="B129" t="n">
-        <v>143955</v>
+        <v>175200</v>
       </c>
       <c r="C129" t="s">
         <v>865</v>
@@ -21577,7 +21577,7 @@
         <v>9501</v>
       </c>
       <c r="B130" t="n">
-        <v>143956</v>
+        <v>175201</v>
       </c>
       <c r="C130" t="s">
         <v>873</v>
@@ -21788,7 +21788,7 @@
         <v>9501</v>
       </c>
       <c r="B133" t="n">
-        <v>143957</v>
+        <v>175202</v>
       </c>
       <c r="C133" t="s">
         <v>894</v>
@@ -21863,7 +21863,7 @@
         <v>9501</v>
       </c>
       <c r="B134" t="n">
-        <v>143958</v>
+        <v>175203</v>
       </c>
       <c r="C134" t="s">
         <v>901</v>
@@ -21938,7 +21938,7 @@
         <v>9501</v>
       </c>
       <c r="B135" t="n">
-        <v>143959</v>
+        <v>175204</v>
       </c>
       <c r="C135" t="s">
         <v>910</v>
@@ -22013,7 +22013,7 @@
         <v>9501</v>
       </c>
       <c r="B136" t="n">
-        <v>143960</v>
+        <v>175205</v>
       </c>
       <c r="C136" t="s">
         <v>916</v>
@@ -22082,7 +22082,7 @@
         <v>9501</v>
       </c>
       <c r="B137" t="n">
-        <v>143961</v>
+        <v>175206</v>
       </c>
       <c r="C137" t="s">
         <v>922</v>
@@ -22147,7 +22147,7 @@
         <v>9501</v>
       </c>
       <c r="B138" t="n">
-        <v>143962</v>
+        <v>175207</v>
       </c>
       <c r="C138" t="s">
         <v>932</v>
@@ -22222,7 +22222,7 @@
         <v>9501</v>
       </c>
       <c r="B139" t="n">
-        <v>143963</v>
+        <v>175208</v>
       </c>
       <c r="C139" t="s">
         <v>941</v>
@@ -22297,7 +22297,7 @@
         <v>9501</v>
       </c>
       <c r="B140" t="n">
-        <v>143964</v>
+        <v>175209</v>
       </c>
       <c r="C140" t="s">
         <v>950</v>
@@ -22368,7 +22368,7 @@
         <v>9501</v>
       </c>
       <c r="B141" t="n">
-        <v>143965</v>
+        <v>175210</v>
       </c>
       <c r="C141" t="s">
         <v>957</v>
@@ -22512,7 +22512,7 @@
         <v>9501</v>
       </c>
       <c r="B143" t="n">
-        <v>143966</v>
+        <v>175211</v>
       </c>
       <c r="C143" t="s">
         <v>969</v>
@@ -22587,7 +22587,7 @@
         <v>9501</v>
       </c>
       <c r="B144" t="n">
-        <v>143967</v>
+        <v>175212</v>
       </c>
       <c r="C144" t="s">
         <v>976</v>
@@ -22662,7 +22662,7 @@
         <v>9501</v>
       </c>
       <c r="B145" t="n">
-        <v>143968</v>
+        <v>175213</v>
       </c>
       <c r="C145" t="s">
         <v>983</v>
@@ -22727,7 +22727,7 @@
         <v>9501</v>
       </c>
       <c r="B146" t="n">
-        <v>143969</v>
+        <v>175214</v>
       </c>
       <c r="C146" t="s">
         <v>991</v>
@@ -22861,7 +22861,7 @@
         <v>9501</v>
       </c>
       <c r="B148" t="n">
-        <v>143970</v>
+        <v>175215</v>
       </c>
       <c r="C148" t="s">
         <v>1004</v>
@@ -22930,7 +22930,7 @@
         <v>9501</v>
       </c>
       <c r="B149" t="n">
-        <v>143971</v>
+        <v>175216</v>
       </c>
       <c r="C149" t="s">
         <v>1011</v>
@@ -23005,7 +23005,7 @@
         <v>9501</v>
       </c>
       <c r="B150" t="n">
-        <v>143972</v>
+        <v>175217</v>
       </c>
       <c r="C150" t="s">
         <v>1018</v>
@@ -23224,7 +23224,7 @@
         <v>9501</v>
       </c>
       <c r="B153" t="n">
-        <v>143973</v>
+        <v>175218</v>
       </c>
       <c r="C153" t="s">
         <v>1038</v>
@@ -23289,7 +23289,7 @@
         <v>9501</v>
       </c>
       <c r="B154" t="n">
-        <v>143974</v>
+        <v>175219</v>
       </c>
       <c r="C154" t="s">
         <v>1045</v>
@@ -23768,7 +23768,7 @@
         <v>9501</v>
       </c>
       <c r="B161" t="n">
-        <v>143975</v>
+        <v>175220</v>
       </c>
       <c r="C161" t="s">
         <v>1090</v>
@@ -23977,7 +23977,7 @@
         <v>9501</v>
       </c>
       <c r="B164" t="n">
-        <v>143976</v>
+        <v>175221</v>
       </c>
       <c r="C164" t="s">
         <v>1108</v>
@@ -24099,7 +24099,7 @@
         <v>9501</v>
       </c>
       <c r="B166" t="n">
-        <v>143977</v>
+        <v>175222</v>
       </c>
       <c r="C166" t="s">
         <v>1121</v>
@@ -24174,7 +24174,7 @@
         <v>9501</v>
       </c>
       <c r="B167" t="n">
-        <v>143978</v>
+        <v>175223</v>
       </c>
       <c r="C167" t="s">
         <v>1128</v>
@@ -24241,7 +24241,7 @@
         <v>9501</v>
       </c>
       <c r="B168" t="n">
-        <v>143979</v>
+        <v>175224</v>
       </c>
       <c r="C168" t="s">
         <v>1135</v>
@@ -24373,7 +24373,7 @@
         <v>9501</v>
       </c>
       <c r="B170" t="n">
-        <v>143980</v>
+        <v>175225</v>
       </c>
       <c r="C170" t="s">
         <v>1148</v>
@@ -24511,7 +24511,7 @@
         <v>9501</v>
       </c>
       <c r="B172" t="n">
-        <v>143981</v>
+        <v>175226</v>
       </c>
       <c r="C172" t="s">
         <v>1160</v>
@@ -24572,7 +24572,7 @@
         <v>9501</v>
       </c>
       <c r="B173" t="n">
-        <v>143982</v>
+        <v>175227</v>
       </c>
       <c r="C173" t="s">
         <v>1166</v>
@@ -24639,7 +24639,7 @@
         <v>9501</v>
       </c>
       <c r="B174" t="n">
-        <v>143983</v>
+        <v>175228</v>
       </c>
       <c r="C174" t="s">
         <v>1172</v>
@@ -24710,7 +24710,7 @@
         <v>9501</v>
       </c>
       <c r="B175" t="n">
-        <v>143984</v>
+        <v>175229</v>
       </c>
       <c r="C175" t="s">
         <v>1178</v>
@@ -24919,7 +24919,7 @@
         <v>9501</v>
       </c>
       <c r="B178" t="n">
-        <v>143985</v>
+        <v>175230</v>
       </c>
       <c r="C178" t="s">
         <v>1197</v>
@@ -24984,7 +24984,7 @@
         <v>9501</v>
       </c>
       <c r="B179" t="n">
-        <v>143986</v>
+        <v>175231</v>
       </c>
       <c r="C179" t="s">
         <v>1204</v>
@@ -25055,7 +25055,7 @@
         <v>9501</v>
       </c>
       <c r="B180" t="n">
-        <v>143987</v>
+        <v>175232</v>
       </c>
       <c r="C180" t="s">
         <v>1210</v>
@@ -25126,7 +25126,7 @@
         <v>9501</v>
       </c>
       <c r="B181" t="n">
-        <v>143988</v>
+        <v>175233</v>
       </c>
       <c r="C181" t="s">
         <v>1216</v>
@@ -25197,7 +25197,7 @@
         <v>9501</v>
       </c>
       <c r="B182" t="n">
-        <v>143989</v>
+        <v>175234</v>
       </c>
       <c r="C182" t="s">
         <v>1222</v>
@@ -25339,7 +25339,7 @@
         <v>9501</v>
       </c>
       <c r="B184" t="n">
-        <v>143990</v>
+        <v>175235</v>
       </c>
       <c r="C184" t="s">
         <v>1235</v>
@@ -25410,7 +25410,7 @@
         <v>9501</v>
       </c>
       <c r="B185" t="n">
-        <v>143991</v>
+        <v>175236</v>
       </c>
       <c r="C185" t="s">
         <v>1242</v>
@@ -25481,7 +25481,7 @@
         <v>9501</v>
       </c>
       <c r="B186" t="n">
-        <v>143992</v>
+        <v>175237</v>
       </c>
       <c r="C186" t="s">
         <v>1249</v>
@@ -25552,7 +25552,7 @@
         <v>9501</v>
       </c>
       <c r="B187" t="n">
-        <v>143993</v>
+        <v>175238</v>
       </c>
       <c r="C187" t="s">
         <v>1255</v>
@@ -25623,7 +25623,7 @@
         <v>9501</v>
       </c>
       <c r="B188" t="n">
-        <v>143994</v>
+        <v>143906</v>
       </c>
       <c r="C188" t="s">
         <v>1260</v>
@@ -25694,7 +25694,7 @@
         <v>9501</v>
       </c>
       <c r="B189" t="n">
-        <v>143995</v>
+        <v>175239</v>
       </c>
       <c r="C189" t="s">
         <v>1265</v>
@@ -25964,7 +25964,7 @@
         <v>9501</v>
       </c>
       <c r="B193" t="n">
-        <v>143996</v>
+        <v>175240</v>
       </c>
       <c r="C193" t="s">
         <v>1286</v>
@@ -26171,7 +26171,7 @@
         <v>9501</v>
       </c>
       <c r="B196" t="n">
-        <v>143997</v>
+        <v>175241</v>
       </c>
       <c r="C196" t="s">
         <v>1305</v>
@@ -26228,7 +26228,7 @@
         <v>9501</v>
       </c>
       <c r="B197" t="n">
-        <v>143998</v>
+        <v>175242</v>
       </c>
       <c r="C197" t="s">
         <v>1311</v>
@@ -26299,7 +26299,7 @@
         <v>9501</v>
       </c>
       <c r="B198" t="n">
-        <v>143999</v>
+        <v>175243</v>
       </c>
       <c r="C198" t="s">
         <v>1317</v>
@@ -26370,7 +26370,7 @@
         <v>9501</v>
       </c>
       <c r="B199" t="n">
-        <v>144000</v>
+        <v>175244</v>
       </c>
       <c r="C199" t="s">
         <v>1322</v>
@@ -26441,7 +26441,7 @@
         <v>9501</v>
       </c>
       <c r="B200" t="n">
-        <v>144001</v>
+        <v>175245</v>
       </c>
       <c r="C200" t="s">
         <v>1328</v>
@@ -26512,7 +26512,7 @@
         <v>9501</v>
       </c>
       <c r="B201" t="n">
-        <v>144002</v>
+        <v>175246</v>
       </c>
       <c r="C201" t="s">
         <v>1335</v>
@@ -26583,7 +26583,7 @@
         <v>9501</v>
       </c>
       <c r="B202" t="n">
-        <v>144003</v>
+        <v>144036</v>
       </c>
       <c r="C202" t="s">
         <v>1341</v>
@@ -26721,7 +26721,7 @@
         <v>9501</v>
       </c>
       <c r="B204" t="n">
-        <v>144004</v>
+        <v>175247</v>
       </c>
       <c r="C204" t="s">
         <v>1352</v>
@@ -26792,7 +26792,7 @@
         <v>9501</v>
       </c>
       <c r="B205" t="n">
-        <v>144005</v>
+        <v>175248</v>
       </c>
       <c r="C205" t="s">
         <v>1358</v>
@@ -26928,7 +26928,7 @@
         <v>9501</v>
       </c>
       <c r="B207" t="n">
-        <v>144006</v>
+        <v>175249</v>
       </c>
       <c r="C207" t="s">
         <v>1369</v>
@@ -26993,7 +26993,7 @@
         <v>9501</v>
       </c>
       <c r="B208" t="n">
-        <v>144007</v>
+        <v>175250</v>
       </c>
       <c r="C208" t="s">
         <v>1375</v>
@@ -27135,7 +27135,7 @@
         <v>9501</v>
       </c>
       <c r="B210" t="n">
-        <v>144008</v>
+        <v>175251</v>
       </c>
       <c r="C210" t="s">
         <v>1387</v>
@@ -27196,7 +27196,7 @@
         <v>9501</v>
       </c>
       <c r="B211" t="n">
-        <v>144009</v>
+        <v>175252</v>
       </c>
       <c r="C211" t="s">
         <v>1393</v>
@@ -27338,7 +27338,7 @@
         <v>9501</v>
       </c>
       <c r="B213" t="n">
-        <v>143993</v>
+        <v>143906</v>
       </c>
       <c r="C213" t="s">
         <v>1260</v>
@@ -27409,7 +27409,7 @@
         <v>9501</v>
       </c>
       <c r="B214" t="n">
-        <v>144010</v>
+        <v>175253</v>
       </c>
       <c r="C214" t="s">
         <v>1408</v>
@@ -27541,7 +27541,7 @@
         <v>9501</v>
       </c>
       <c r="B216" t="n">
-        <v>144011</v>
+        <v>175254</v>
       </c>
       <c r="C216" t="s">
         <v>1421</v>
@@ -27612,7 +27612,7 @@
         <v>9501</v>
       </c>
       <c r="B217" t="n">
-        <v>143886</v>
+        <v>143908</v>
       </c>
       <c r="C217" t="s">
         <v>328</v>
@@ -27896,7 +27896,7 @@
         <v>9501</v>
       </c>
       <c r="B221" t="n">
-        <v>144012</v>
+        <v>175255</v>
       </c>
       <c r="C221" t="s">
         <v>1449</v>
@@ -27957,7 +27957,7 @@
         <v>9501</v>
       </c>
       <c r="B222" t="n">
-        <v>144013</v>
+        <v>175256</v>
       </c>
       <c r="C222" t="s">
         <v>1456</v>
@@ -28024,7 +28024,7 @@
         <v>9501</v>
       </c>
       <c r="B223" t="n">
-        <v>144014</v>
+        <v>175257</v>
       </c>
       <c r="C223" t="s">
         <v>1462</v>
@@ -28166,7 +28166,7 @@
         <v>9501</v>
       </c>
       <c r="B225" t="n">
-        <v>144015</v>
+        <v>175258</v>
       </c>
       <c r="C225" t="s">
         <v>1474</v>
@@ -28308,7 +28308,7 @@
         <v>9501</v>
       </c>
       <c r="B227" t="n">
-        <v>144016</v>
+        <v>175259</v>
       </c>
       <c r="C227" t="s">
         <v>1486</v>
@@ -28379,7 +28379,7 @@
         <v>9501</v>
       </c>
       <c r="B228" t="n">
-        <v>144017</v>
+        <v>175260</v>
       </c>
       <c r="C228" t="s">
         <v>1492</v>
@@ -28521,7 +28521,7 @@
         <v>9501</v>
       </c>
       <c r="B230" t="n">
-        <v>144018</v>
+        <v>175261</v>
       </c>
       <c r="C230" t="s">
         <v>1505</v>
@@ -28592,7 +28592,7 @@
         <v>9501</v>
       </c>
       <c r="B231" t="n">
-        <v>144019</v>
+        <v>175262</v>
       </c>
       <c r="C231" t="s">
         <v>1511</v>
@@ -28663,7 +28663,7 @@
         <v>9501</v>
       </c>
       <c r="B232" t="n">
-        <v>144020</v>
+        <v>175263</v>
       </c>
       <c r="C232" t="s">
         <v>1517</v>
@@ -28866,7 +28866,7 @@
         <v>9501</v>
       </c>
       <c r="B235" t="n">
-        <v>144021</v>
+        <v>175264</v>
       </c>
       <c r="C235" t="s">
         <v>1535</v>
@@ -28937,7 +28937,7 @@
         <v>9501</v>
       </c>
       <c r="B236" t="n">
-        <v>144022</v>
+        <v>175265</v>
       </c>
       <c r="C236" t="s">
         <v>1541</v>
@@ -29006,7 +29006,7 @@
         <v>9501</v>
       </c>
       <c r="B237" t="n">
-        <v>144023</v>
+        <v>175266</v>
       </c>
       <c r="C237" t="s">
         <v>1547</v>
@@ -29077,7 +29077,7 @@
         <v>9501</v>
       </c>
       <c r="B238" t="n">
-        <v>144024</v>
+        <v>175267</v>
       </c>
       <c r="C238" t="s">
         <v>1553</v>
@@ -29148,7 +29148,7 @@
         <v>9501</v>
       </c>
       <c r="B239" t="n">
-        <v>144025</v>
+        <v>175268</v>
       </c>
       <c r="C239" t="s">
         <v>1559</v>
@@ -29290,7 +29290,7 @@
         <v>9501</v>
       </c>
       <c r="B241" t="n">
-        <v>144026</v>
+        <v>175269</v>
       </c>
       <c r="C241" t="s">
         <v>1570</v>
@@ -29361,7 +29361,7 @@
         <v>9501</v>
       </c>
       <c r="B242" t="n">
-        <v>144027</v>
+        <v>175270</v>
       </c>
       <c r="C242" t="s">
         <v>1576</v>
@@ -29645,7 +29645,7 @@
         <v>9501</v>
       </c>
       <c r="B246" t="n">
-        <v>144028</v>
+        <v>175271</v>
       </c>
       <c r="C246" t="s">
         <v>1600</v>
@@ -29787,7 +29787,7 @@
         <v>9501</v>
       </c>
       <c r="B248" t="n">
-        <v>144029</v>
+        <v>175272</v>
       </c>
       <c r="C248" t="s">
         <v>1612</v>
@@ -30000,7 +30000,7 @@
         <v>9501</v>
       </c>
       <c r="B251" t="n">
-        <v>144030</v>
+        <v>175273</v>
       </c>
       <c r="C251" t="s">
         <v>1629</v>
@@ -30071,7 +30071,7 @@
         <v>9501</v>
       </c>
       <c r="B252" t="n">
-        <v>143883</v>
+        <v>143924</v>
       </c>
       <c r="C252" t="s">
         <v>304</v>
@@ -30138,7 +30138,7 @@
         <v>9501</v>
       </c>
       <c r="B253" t="n">
-        <v>143855</v>
+        <v>143925</v>
       </c>
       <c r="C253" t="s">
         <v>68</v>
@@ -30209,7 +30209,7 @@
         <v>9501</v>
       </c>
       <c r="B254" t="n">
-        <v>144031</v>
+        <v>175274</v>
       </c>
       <c r="C254" t="s">
         <v>1646</v>
@@ -30280,7 +30280,7 @@
         <v>9501</v>
       </c>
       <c r="B255" t="n">
-        <v>144032</v>
+        <v>175275</v>
       </c>
       <c r="C255" t="s">
         <v>1652</v>
@@ -30408,7 +30408,7 @@
         <v>9501</v>
       </c>
       <c r="B257" t="n">
-        <v>144033</v>
+        <v>175276</v>
       </c>
       <c r="C257" t="s">
         <v>1664</v>
@@ -30692,7 +30692,7 @@
         <v>9501</v>
       </c>
       <c r="B261" t="n">
-        <v>144034</v>
+        <v>175277</v>
       </c>
       <c r="C261" t="s">
         <v>1688</v>
@@ -30759,7 +30759,7 @@
         <v>9501</v>
       </c>
       <c r="B262" t="n">
-        <v>144035</v>
+        <v>175278</v>
       </c>
       <c r="C262" t="s">
         <v>1695</v>
@@ -30820,7 +30820,7 @@
         <v>9501</v>
       </c>
       <c r="B263" t="n">
-        <v>144036</v>
+        <v>175279</v>
       </c>
       <c r="C263" t="s">
         <v>1702</v>
@@ -30887,7 +30887,7 @@
         <v>9501</v>
       </c>
       <c r="B264" t="n">
-        <v>144037</v>
+        <v>175280</v>
       </c>
       <c r="C264" t="s">
         <v>1708</v>
@@ -30958,7 +30958,7 @@
         <v>9501</v>
       </c>
       <c r="B265" t="n">
-        <v>144038</v>
+        <v>175281</v>
       </c>
       <c r="C265" t="s">
         <v>1714</v>
@@ -31094,7 +31094,7 @@
         <v>9501</v>
       </c>
       <c r="B267" t="n">
-        <v>144039</v>
+        <v>175282</v>
       </c>
       <c r="C267" t="s">
         <v>1726</v>
@@ -31165,7 +31165,7 @@
         <v>9501</v>
       </c>
       <c r="B268" t="n">
-        <v>144040</v>
+        <v>175283</v>
       </c>
       <c r="C268" t="s">
         <v>1732</v>
@@ -31226,7 +31226,7 @@
         <v>9501</v>
       </c>
       <c r="B269" t="n">
-        <v>144041</v>
+        <v>175284</v>
       </c>
       <c r="C269" t="s">
         <v>1739</v>
@@ -31297,7 +31297,7 @@
         <v>9501</v>
       </c>
       <c r="B270" t="n">
-        <v>144042</v>
+        <v>175285</v>
       </c>
       <c r="C270" t="s">
         <v>1747</v>
@@ -31368,7 +31368,7 @@
         <v>9501</v>
       </c>
       <c r="B271" t="n">
-        <v>144043</v>
+        <v>175286</v>
       </c>
       <c r="C271" t="s">
         <v>1753</v>
@@ -31439,7 +31439,7 @@
         <v>9501</v>
       </c>
       <c r="B272" t="n">
-        <v>144044</v>
+        <v>175287</v>
       </c>
       <c r="C272" t="s">
         <v>1759</v>
@@ -31723,7 +31723,7 @@
         <v>9501</v>
       </c>
       <c r="B276" t="n">
-        <v>144045</v>
+        <v>175288</v>
       </c>
       <c r="C276" t="s">
         <v>1785</v>
@@ -31790,7 +31790,7 @@
         <v>9501</v>
       </c>
       <c r="B277" t="n">
-        <v>144046</v>
+        <v>175289</v>
       </c>
       <c r="C277" t="s">
         <v>1792</v>
@@ -31857,7 +31857,7 @@
         <v>9501</v>
       </c>
       <c r="B278" t="n">
-        <v>144047</v>
+        <v>175290</v>
       </c>
       <c r="C278" t="s">
         <v>1798</v>
@@ -31928,7 +31928,7 @@
         <v>9501</v>
       </c>
       <c r="B279" t="n">
-        <v>143886</v>
+        <v>143908</v>
       </c>
       <c r="C279" t="s">
         <v>328</v>
@@ -32208,7 +32208,7 @@
         <v>9501</v>
       </c>
       <c r="B283" t="n">
-        <v>144048</v>
+        <v>175291</v>
       </c>
       <c r="C283" t="s">
         <v>1829</v>
@@ -32472,7 +32472,7 @@
         <v>9501</v>
       </c>
       <c r="B287" t="n">
-        <v>143855</v>
+        <v>143925</v>
       </c>
       <c r="C287" t="s">
         <v>68</v>
@@ -33223,7 +33223,7 @@
         <v>9501</v>
       </c>
       <c r="B298" t="n">
-        <v>144049</v>
+        <v>175292</v>
       </c>
       <c r="C298" t="s">
         <v>1927</v>
@@ -33430,7 +33430,7 @@
         <v>9501</v>
       </c>
       <c r="B301" t="n">
-        <v>144050</v>
+        <v>175293</v>
       </c>
       <c r="C301" t="s">
         <v>1946</v>
@@ -33501,7 +33501,7 @@
         <v>9501</v>
       </c>
       <c r="B302" t="n">
-        <v>144051</v>
+        <v>144003</v>
       </c>
       <c r="C302" t="s">
         <v>1952</v>
@@ -33572,7 +33572,7 @@
         <v>9501</v>
       </c>
       <c r="B303" t="n">
-        <v>144052</v>
+        <v>175294</v>
       </c>
       <c r="C303" t="s">
         <v>1958</v>
@@ -33647,7 +33647,7 @@
         <v>9501</v>
       </c>
       <c r="B304" t="n">
-        <v>144053</v>
+        <v>175295</v>
       </c>
       <c r="C304" t="s">
         <v>1966</v>
@@ -33714,7 +33714,7 @@
         <v>9501</v>
       </c>
       <c r="B305" t="n">
-        <v>144054</v>
+        <v>175296</v>
       </c>
       <c r="C305" t="s">
         <v>1972</v>
@@ -33785,7 +33785,7 @@
         <v>9501</v>
       </c>
       <c r="B306" t="n">
-        <v>144055</v>
+        <v>175297</v>
       </c>
       <c r="C306" t="s">
         <v>1979</v>
@@ -33846,7 +33846,7 @@
         <v>9501</v>
       </c>
       <c r="B307" t="n">
-        <v>144056</v>
+        <v>175298</v>
       </c>
       <c r="C307" t="s">
         <v>1985</v>
@@ -33917,7 +33917,7 @@
         <v>9501</v>
       </c>
       <c r="B308" t="n">
-        <v>144057</v>
+        <v>175299</v>
       </c>
       <c r="C308" t="s">
         <v>1991</v>
@@ -33988,7 +33988,7 @@
         <v>9501</v>
       </c>
       <c r="B309" t="n">
-        <v>144058</v>
+        <v>175300</v>
       </c>
       <c r="C309" t="s">
         <v>1997</v>
@@ -34120,7 +34120,7 @@
         <v>9501</v>
       </c>
       <c r="B311" t="n">
-        <v>144059</v>
+        <v>175301</v>
       </c>
       <c r="C311" t="s">
         <v>2009</v>
@@ -34187,7 +34187,7 @@
         <v>9501</v>
       </c>
       <c r="B312" t="n">
-        <v>144060</v>
+        <v>175302</v>
       </c>
       <c r="C312" t="s">
         <v>2015</v>
@@ -34254,7 +34254,7 @@
         <v>9501</v>
       </c>
       <c r="B313" t="n">
-        <v>144061</v>
+        <v>175303</v>
       </c>
       <c r="C313" t="s">
         <v>2020</v>
@@ -34319,7 +34319,7 @@
         <v>9501</v>
       </c>
       <c r="B314" t="n">
-        <v>144062</v>
+        <v>175304</v>
       </c>
       <c r="C314" t="s">
         <v>2026</v>
@@ -34390,7 +34390,7 @@
         <v>9501</v>
       </c>
       <c r="B315" t="n">
-        <v>144063</v>
+        <v>175305</v>
       </c>
       <c r="C315" t="s">
         <v>2032</v>
@@ -34461,7 +34461,7 @@
         <v>9501</v>
       </c>
       <c r="B316" t="n">
-        <v>144064</v>
+        <v>175306</v>
       </c>
       <c r="C316" t="s">
         <v>2038</v>
@@ -34526,7 +34526,7 @@
         <v>9501</v>
       </c>
       <c r="B317" t="n">
-        <v>144065</v>
+        <v>175307</v>
       </c>
       <c r="C317" t="s">
         <v>2045</v>
@@ -34593,7 +34593,7 @@
         <v>9501</v>
       </c>
       <c r="B318" t="n">
-        <v>144066</v>
+        <v>175308</v>
       </c>
       <c r="C318" t="s">
         <v>2052</v>
@@ -34658,7 +34658,7 @@
         <v>9501</v>
       </c>
       <c r="B319" t="n">
-        <v>144067</v>
+        <v>175309</v>
       </c>
       <c r="C319" t="s">
         <v>2059</v>
@@ -34792,7 +34792,7 @@
         <v>9501</v>
       </c>
       <c r="B321" t="n">
-        <v>144068</v>
+        <v>175310</v>
       </c>
       <c r="C321" t="s">
         <v>2073</v>
@@ -34853,7 +34853,7 @@
         <v>9501</v>
       </c>
       <c r="B322" t="n">
-        <v>144069</v>
+        <v>175311</v>
       </c>
       <c r="C322" t="s">
         <v>2080</v>
@@ -34920,7 +34920,7 @@
         <v>9501</v>
       </c>
       <c r="B323" t="n">
-        <v>144070</v>
+        <v>175312</v>
       </c>
       <c r="C323" t="s">
         <v>2087</v>
@@ -34977,7 +34977,7 @@
         <v>9501</v>
       </c>
       <c r="B324" t="n">
-        <v>144071</v>
+        <v>175313</v>
       </c>
       <c r="C324" t="s">
         <v>2093</v>
@@ -35442,7 +35442,7 @@
         <v>9501</v>
       </c>
       <c r="B331" t="n">
-        <v>144072</v>
+        <v>175314</v>
       </c>
       <c r="C331" t="s">
         <v>2135</v>
@@ -35655,7 +35655,7 @@
         <v>9501</v>
       </c>
       <c r="B334" t="n">
-        <v>144073</v>
+        <v>175315</v>
       </c>
       <c r="C334" t="s">
         <v>2152</v>
@@ -35722,7 +35722,7 @@
         <v>9501</v>
       </c>
       <c r="B335" t="n">
-        <v>144074</v>
+        <v>175316</v>
       </c>
       <c r="C335" t="s">
         <v>2158</v>
@@ -35793,7 +35793,7 @@
         <v>9501</v>
       </c>
       <c r="B336" t="n">
-        <v>144075</v>
+        <v>175317</v>
       </c>
       <c r="C336" t="s">
         <v>2164</v>
@@ -35864,7 +35864,7 @@
         <v>9501</v>
       </c>
       <c r="B337" t="n">
-        <v>144076</v>
+        <v>175318</v>
       </c>
       <c r="C337" t="s">
         <v>2170</v>
@@ -35935,7 +35935,7 @@
         <v>9501</v>
       </c>
       <c r="B338" t="n">
-        <v>144077</v>
+        <v>175319</v>
       </c>
       <c r="C338" t="s">
         <v>2176</v>
@@ -36006,7 +36006,7 @@
         <v>9501</v>
       </c>
       <c r="B339" t="n">
-        <v>144078</v>
+        <v>175320</v>
       </c>
       <c r="C339" t="s">
         <v>2182</v>
@@ -36073,7 +36073,7 @@
         <v>9501</v>
       </c>
       <c r="B340" t="n">
-        <v>144079</v>
+        <v>175321</v>
       </c>
       <c r="C340" t="s">
         <v>2189</v>
@@ -36130,7 +36130,7 @@
         <v>9501</v>
       </c>
       <c r="B341" t="n">
-        <v>144080</v>
+        <v>175322</v>
       </c>
       <c r="C341" t="s">
         <v>2195</v>
@@ -36201,7 +36201,7 @@
         <v>9501</v>
       </c>
       <c r="B342" t="n">
-        <v>144081</v>
+        <v>175323</v>
       </c>
       <c r="C342" t="s">
         <v>2201</v>
@@ -36266,7 +36266,7 @@
         <v>9501</v>
       </c>
       <c r="B343" t="n">
-        <v>144082</v>
+        <v>175324</v>
       </c>
       <c r="C343" t="s">
         <v>2208</v>
@@ -36408,7 +36408,7 @@
         <v>9501</v>
       </c>
       <c r="B345" t="n">
-        <v>144083</v>
+        <v>175325</v>
       </c>
       <c r="C345" t="s">
         <v>2220</v>
@@ -36479,7 +36479,7 @@
         <v>9501</v>
       </c>
       <c r="B346" t="n">
-        <v>144084</v>
+        <v>175326</v>
       </c>
       <c r="C346" t="s">
         <v>2224</v>
@@ -36550,7 +36550,7 @@
         <v>9501</v>
       </c>
       <c r="B347" t="n">
-        <v>144085</v>
+        <v>175327</v>
       </c>
       <c r="C347" t="s">
         <v>2230</v>
@@ -36621,7 +36621,7 @@
         <v>9501</v>
       </c>
       <c r="B348" t="n">
-        <v>144086</v>
+        <v>175328</v>
       </c>
       <c r="C348" t="s">
         <v>2236</v>
@@ -36759,7 +36759,7 @@
         <v>9501</v>
       </c>
       <c r="B350" t="n">
-        <v>144087</v>
+        <v>175329</v>
       </c>
       <c r="C350" t="s">
         <v>2248</v>
@@ -36820,7 +36820,7 @@
         <v>9501</v>
       </c>
       <c r="B351" t="n">
-        <v>144088</v>
+        <v>175330</v>
       </c>
       <c r="C351" t="s">
         <v>2254</v>
@@ -36891,7 +36891,7 @@
         <v>9501</v>
       </c>
       <c r="B352" t="n">
-        <v>144089</v>
+        <v>175331</v>
       </c>
       <c r="C352" t="s">
         <v>2261</v>
@@ -37086,7 +37086,7 @@
         <v>9501</v>
       </c>
       <c r="B355" t="n">
-        <v>144090</v>
+        <v>175332</v>
       </c>
       <c r="C355" t="s">
         <v>2279</v>
@@ -37222,7 +37222,7 @@
         <v>9501</v>
       </c>
       <c r="B357" t="n">
-        <v>144091</v>
+        <v>175333</v>
       </c>
       <c r="C357" t="s">
         <v>2293</v>
@@ -37496,7 +37496,7 @@
         <v>9501</v>
       </c>
       <c r="B361" t="n">
-        <v>144092</v>
+        <v>175334</v>
       </c>
       <c r="C361" t="s">
         <v>2316</v>
@@ -37634,7 +37634,7 @@
         <v>9501</v>
       </c>
       <c r="B363" t="n">
-        <v>144093</v>
+        <v>175335</v>
       </c>
       <c r="C363" t="s">
         <v>2330</v>
@@ -37768,7 +37768,7 @@
         <v>9501</v>
       </c>
       <c r="B365" t="n">
-        <v>144094</v>
+        <v>175336</v>
       </c>
       <c r="C365" t="s">
         <v>2344</v>
@@ -37904,7 +37904,7 @@
         <v>9501</v>
       </c>
       <c r="B367" t="n">
-        <v>144095</v>
+        <v>175337</v>
       </c>
       <c r="C367" t="s">
         <v>2355</v>
@@ -37971,7 +37971,7 @@
         <v>9501</v>
       </c>
       <c r="B368" t="n">
-        <v>144096</v>
+        <v>175338</v>
       </c>
       <c r="C368" t="s">
         <v>2362</v>
@@ -38036,7 +38036,7 @@
         <v>9501</v>
       </c>
       <c r="B369" t="n">
-        <v>144097</v>
+        <v>175339</v>
       </c>
       <c r="C369" t="s">
         <v>2369</v>
@@ -38101,7 +38101,7 @@
         <v>9501</v>
       </c>
       <c r="B370" t="n">
-        <v>144098</v>
+        <v>175340</v>
       </c>
       <c r="C370" t="s">
         <v>2376</v>
@@ -38440,7 +38440,7 @@
         <v>9501</v>
       </c>
       <c r="B375" t="n">
-        <v>144099</v>
+        <v>175341</v>
       </c>
       <c r="C375" t="s">
         <v>2405</v>
@@ -38574,7 +38574,7 @@
         <v>9501</v>
       </c>
       <c r="B377" t="n">
-        <v>144100</v>
+        <v>175342</v>
       </c>
       <c r="C377" t="s">
         <v>2418</v>
@@ -38639,7 +38639,7 @@
         <v>9501</v>
       </c>
       <c r="B378" t="n">
-        <v>144101</v>
+        <v>175343</v>
       </c>
       <c r="C378" t="s">
         <v>2425</v>
@@ -38777,7 +38777,7 @@
         <v>9501</v>
       </c>
       <c r="B380" t="n">
-        <v>144102</v>
+        <v>175344</v>
       </c>
       <c r="C380" t="s">
         <v>2439</v>
@@ -38848,7 +38848,7 @@
         <v>9501</v>
       </c>
       <c r="B381" t="n">
-        <v>144103</v>
+        <v>175345</v>
       </c>
       <c r="C381" t="s">
         <v>2444</v>
@@ -38915,7 +38915,7 @@
         <v>9501</v>
       </c>
       <c r="B382" t="n">
-        <v>144104</v>
+        <v>175346</v>
       </c>
       <c r="C382" t="s">
         <v>2450</v>
@@ -39053,7 +39053,7 @@
         <v>9501</v>
       </c>
       <c r="B384" t="n">
-        <v>144105</v>
+        <v>175347</v>
       </c>
       <c r="C384" t="s">
         <v>2461</v>
@@ -39260,7 +39260,7 @@
         <v>9501</v>
       </c>
       <c r="B387" t="n">
-        <v>144106</v>
+        <v>175348</v>
       </c>
       <c r="C387" t="s">
         <v>2480</v>
@@ -39469,7 +39469,7 @@
         <v>9501</v>
       </c>
       <c r="B390" t="n">
-        <v>144107</v>
+        <v>175349</v>
       </c>
       <c r="C390" t="s">
         <v>2498</v>
@@ -39540,7 +39540,7 @@
         <v>9501</v>
       </c>
       <c r="B391" t="n">
-        <v>144108</v>
+        <v>175350</v>
       </c>
       <c r="C391" t="s">
         <v>2505</v>
@@ -39607,7 +39607,7 @@
         <v>9501</v>
       </c>
       <c r="B392" t="n">
-        <v>144109</v>
+        <v>175351</v>
       </c>
       <c r="C392" t="s">
         <v>2512</v>
@@ -39670,7 +39670,7 @@
         <v>9501</v>
       </c>
       <c r="B393" t="n">
-        <v>144110</v>
+        <v>175352</v>
       </c>
       <c r="C393" t="s">
         <v>2519</v>
@@ -39727,7 +39727,7 @@
         <v>9501</v>
       </c>
       <c r="B394" t="n">
-        <v>144111</v>
+        <v>175353</v>
       </c>
       <c r="C394" t="s">
         <v>2525</v>
@@ -39865,7 +39865,7 @@
         <v>9501</v>
       </c>
       <c r="B396" t="n">
-        <v>144112</v>
+        <v>175354</v>
       </c>
       <c r="C396" t="s">
         <v>2537</v>
@@ -40074,7 +40074,7 @@
         <v>9501</v>
       </c>
       <c r="B399" t="n">
-        <v>144113</v>
+        <v>175355</v>
       </c>
       <c r="C399" t="s">
         <v>2555</v>
@@ -40141,7 +40141,7 @@
         <v>9501</v>
       </c>
       <c r="B400" t="n">
-        <v>144114</v>
+        <v>175356</v>
       </c>
       <c r="C400" t="s">
         <v>2561</v>
@@ -40216,7 +40216,7 @@
         <v>9501</v>
       </c>
       <c r="B401" t="n">
-        <v>144115</v>
+        <v>175357</v>
       </c>
       <c r="C401" t="s">
         <v>2569</v>
@@ -40273,7 +40273,7 @@
         <v>9501</v>
       </c>
       <c r="B402" t="n">
-        <v>144116</v>
+        <v>175358</v>
       </c>
       <c r="C402" t="s">
         <v>2576</v>
@@ -40474,7 +40474,7 @@
         <v>9501</v>
       </c>
       <c r="B405" t="n">
-        <v>144117</v>
+        <v>175359</v>
       </c>
       <c r="C405" t="s">
         <v>2594</v>
@@ -40539,7 +40539,7 @@
         <v>9501</v>
       </c>
       <c r="B406" t="n">
-        <v>144118</v>
+        <v>175360</v>
       </c>
       <c r="C406" t="s">
         <v>2602</v>
@@ -40610,7 +40610,7 @@
         <v>9501</v>
       </c>
       <c r="B407" t="n">
-        <v>144119</v>
+        <v>175361</v>
       </c>
       <c r="C407" t="s">
         <v>2608</v>
@@ -40685,7 +40685,7 @@
         <v>9501</v>
       </c>
       <c r="B408" t="n">
-        <v>144120</v>
+        <v>175362</v>
       </c>
       <c r="C408" t="s">
         <v>2615</v>
@@ -40752,7 +40752,7 @@
         <v>9501</v>
       </c>
       <c r="B409" t="n">
-        <v>144121</v>
+        <v>175363</v>
       </c>
       <c r="C409" t="s">
         <v>2621</v>
@@ -40827,7 +40827,7 @@
         <v>9501</v>
       </c>
       <c r="B410" t="n">
-        <v>144122</v>
+        <v>175364</v>
       </c>
       <c r="C410" t="s">
         <v>2628</v>
@@ -40894,7 +40894,7 @@
         <v>9501</v>
       </c>
       <c r="B411" t="n">
-        <v>144123</v>
+        <v>175365</v>
       </c>
       <c r="C411" t="s">
         <v>2635</v>
@@ -41036,7 +41036,7 @@
         <v>9501</v>
       </c>
       <c r="B413" t="n">
-        <v>144124</v>
+        <v>175366</v>
       </c>
       <c r="C413" t="s">
         <v>2647</v>
@@ -41103,7 +41103,7 @@
         <v>9501</v>
       </c>
       <c r="B414" t="n">
-        <v>144125</v>
+        <v>175367</v>
       </c>
       <c r="C414" t="s">
         <v>2653</v>
@@ -41168,7 +41168,7 @@
         <v>9501</v>
       </c>
       <c r="B415" t="n">
-        <v>144126</v>
+        <v>175368</v>
       </c>
       <c r="C415" t="s">
         <v>2660</v>
@@ -41233,7 +41233,7 @@
         <v>9501</v>
       </c>
       <c r="B416" t="n">
-        <v>144127</v>
+        <v>175369</v>
       </c>
       <c r="C416" t="s">
         <v>2666</v>
@@ -41308,7 +41308,7 @@
         <v>9501</v>
       </c>
       <c r="B417" t="n">
-        <v>144128</v>
+        <v>175370</v>
       </c>
       <c r="C417" t="s">
         <v>2673</v>
@@ -41440,7 +41440,7 @@
         <v>9501</v>
       </c>
       <c r="B419" t="n">
-        <v>144129</v>
+        <v>144058</v>
       </c>
       <c r="C419" t="s">
         <v>2684</v>
@@ -41511,7 +41511,7 @@
         <v>9501</v>
       </c>
       <c r="B420" t="n">
-        <v>144130</v>
+        <v>175371</v>
       </c>
       <c r="C420" t="s">
         <v>2690</v>
@@ -41582,7 +41582,7 @@
         <v>9501</v>
       </c>
       <c r="B421" t="n">
-        <v>144131</v>
+        <v>175372</v>
       </c>
       <c r="C421" t="s">
         <v>2697</v>
@@ -41653,7 +41653,7 @@
         <v>9501</v>
       </c>
       <c r="B422" t="n">
-        <v>144132</v>
+        <v>175373</v>
       </c>
       <c r="C422" t="s">
         <v>2703</v>
@@ -41941,7 +41941,7 @@
         <v>9501</v>
       </c>
       <c r="B426" t="n">
-        <v>144133</v>
+        <v>175374</v>
       </c>
       <c r="C426" t="s">
         <v>2729</v>
@@ -42154,7 +42154,7 @@
         <v>9501</v>
       </c>
       <c r="B429" t="n">
-        <v>144134</v>
+        <v>175375</v>
       </c>
       <c r="C429" t="s">
         <v>2745</v>
@@ -42225,7 +42225,7 @@
         <v>9501</v>
       </c>
       <c r="B430" t="n">
-        <v>144135</v>
+        <v>175376</v>
       </c>
       <c r="C430" t="s">
         <v>2750</v>
@@ -42353,7 +42353,7 @@
         <v>9501</v>
       </c>
       <c r="B432" t="n">
-        <v>144136</v>
+        <v>175377</v>
       </c>
       <c r="C432" t="s">
         <v>2761</v>
@@ -42566,7 +42566,7 @@
         <v>9501</v>
       </c>
       <c r="B435" t="n">
-        <v>144137</v>
+        <v>175378</v>
       </c>
       <c r="C435" t="s">
         <v>2779</v>
@@ -42633,7 +42633,7 @@
         <v>9501</v>
       </c>
       <c r="B436" t="n">
-        <v>144138</v>
+        <v>175379</v>
       </c>
       <c r="C436" t="s">
         <v>2785</v>
@@ -42704,7 +42704,7 @@
         <v>9501</v>
       </c>
       <c r="B437" t="n">
-        <v>144139</v>
+        <v>175380</v>
       </c>
       <c r="C437" t="s">
         <v>2791</v>
@@ -42771,7 +42771,7 @@
         <v>9501</v>
       </c>
       <c r="B438" t="n">
-        <v>144140</v>
+        <v>175381</v>
       </c>
       <c r="C438" t="s">
         <v>2797</v>
@@ -42913,7 +42913,7 @@
         <v>9501</v>
       </c>
       <c r="B440" t="n">
-        <v>144141</v>
+        <v>175382</v>
       </c>
       <c r="C440" t="s">
         <v>2807</v>
@@ -42984,7 +42984,7 @@
         <v>9501</v>
       </c>
       <c r="B441" t="n">
-        <v>144142</v>
+        <v>175383</v>
       </c>
       <c r="C441" t="s">
         <v>2814</v>
@@ -43055,7 +43055,7 @@
         <v>9501</v>
       </c>
       <c r="B442" t="n">
-        <v>144143</v>
+        <v>175384</v>
       </c>
       <c r="C442" t="s">
         <v>2820</v>
@@ -43201,7 +43201,7 @@
         <v>9501</v>
       </c>
       <c r="B444" t="n">
-        <v>144050</v>
+        <v>144003</v>
       </c>
       <c r="C444" t="s">
         <v>1952</v>
@@ -43351,7 +43351,7 @@
         <v>9501</v>
       </c>
       <c r="B446" t="n">
-        <v>144144</v>
+        <v>175385</v>
       </c>
       <c r="C446" t="s">
         <v>2846</v>
@@ -43422,7 +43422,7 @@
         <v>9501</v>
       </c>
       <c r="B447" t="n">
-        <v>144145</v>
+        <v>175386</v>
       </c>
       <c r="C447" t="s">
         <v>2853</v>
@@ -43497,7 +43497,7 @@
         <v>9501</v>
       </c>
       <c r="B448" t="n">
-        <v>144146</v>
+        <v>175387</v>
       </c>
       <c r="C448" t="s">
         <v>2861</v>
@@ -43785,7 +43785,7 @@
         <v>9501</v>
       </c>
       <c r="B452" t="n">
-        <v>144147</v>
+        <v>175388</v>
       </c>
       <c r="C452" t="s">
         <v>2886</v>
@@ -44073,7 +44073,7 @@
         <v>9501</v>
       </c>
       <c r="B456" t="n">
-        <v>144148</v>
+        <v>175389</v>
       </c>
       <c r="C456" t="s">
         <v>2909</v>
@@ -44357,7 +44357,7 @@
         <v>9501</v>
       </c>
       <c r="B460" t="n">
-        <v>144149</v>
+        <v>175390</v>
       </c>
       <c r="C460" t="s">
         <v>2930</v>
@@ -44499,7 +44499,7 @@
         <v>9501</v>
       </c>
       <c r="B462" t="n">
-        <v>144150</v>
+        <v>175391</v>
       </c>
       <c r="C462" t="s">
         <v>2942</v>
@@ -44915,7 +44915,7 @@
         <v>9501</v>
       </c>
       <c r="B468" t="n">
-        <v>144151</v>
+        <v>175392</v>
       </c>
       <c r="C468" t="s">
         <v>2979</v>
@@ -45199,7 +45199,7 @@
         <v>9501</v>
       </c>
       <c r="B472" t="n">
-        <v>144152</v>
+        <v>175393</v>
       </c>
       <c r="C472" t="s">
         <v>3005</v>
@@ -45270,7 +45270,7 @@
         <v>9501</v>
       </c>
       <c r="B473" t="n">
-        <v>144153</v>
+        <v>175394</v>
       </c>
       <c r="C473" t="s">
         <v>3011</v>
@@ -45341,7 +45341,7 @@
         <v>9501</v>
       </c>
       <c r="B474" t="n">
-        <v>144154</v>
+        <v>175395</v>
       </c>
       <c r="C474" t="s">
         <v>3017</v>
@@ -45416,7 +45416,7 @@
         <v>9501</v>
       </c>
       <c r="B475" t="n">
-        <v>144155</v>
+        <v>175396</v>
       </c>
       <c r="C475" t="s">
         <v>3026</v>
@@ -45637,7 +45637,7 @@
         <v>9501</v>
       </c>
       <c r="B478" t="n">
-        <v>144156</v>
+        <v>175397</v>
       </c>
       <c r="C478" t="s">
         <v>3047</v>
@@ -45850,7 +45850,7 @@
         <v>9501</v>
       </c>
       <c r="B481" t="n">
-        <v>144157</v>
+        <v>175398</v>
       </c>
       <c r="C481" t="s">
         <v>3068</v>
@@ -46063,7 +46063,7 @@
         <v>9501</v>
       </c>
       <c r="B484" t="n">
-        <v>144158</v>
+        <v>175399</v>
       </c>
       <c r="C484" t="s">
         <v>3086</v>
@@ -46280,7 +46280,7 @@
         <v>9501</v>
       </c>
       <c r="B487" t="n">
-        <v>144159</v>
+        <v>175400</v>
       </c>
       <c r="C487" t="s">
         <v>3106</v>
@@ -46351,7 +46351,7 @@
         <v>9501</v>
       </c>
       <c r="B488" t="n">
-        <v>144160</v>
+        <v>175401</v>
       </c>
       <c r="C488" t="s">
         <v>3112</v>
@@ -46493,7 +46493,7 @@
         <v>9501</v>
       </c>
       <c r="B490" t="n">
-        <v>144161</v>
+        <v>175402</v>
       </c>
       <c r="C490" t="s">
         <v>3124</v>
@@ -46639,7 +46639,7 @@
         <v>9501</v>
       </c>
       <c r="B492" t="n">
-        <v>144162</v>
+        <v>175403</v>
       </c>
       <c r="C492" t="s">
         <v>3139</v>
@@ -46781,7 +46781,7 @@
         <v>9501</v>
       </c>
       <c r="B494" t="n">
-        <v>144163</v>
+        <v>175404</v>
       </c>
       <c r="C494" t="s">
         <v>3150</v>
@@ -46852,7 +46852,7 @@
         <v>9501</v>
       </c>
       <c r="B495" t="n">
-        <v>144164</v>
+        <v>175405</v>
       </c>
       <c r="C495" t="s">
         <v>3157</v>
@@ -46994,7 +46994,7 @@
         <v>9501</v>
       </c>
       <c r="B497" t="n">
-        <v>144165</v>
+        <v>175406</v>
       </c>
       <c r="C497" t="s">
         <v>3170</v>
@@ -47136,7 +47136,7 @@
         <v>9501</v>
       </c>
       <c r="B499" t="n">
-        <v>144166</v>
+        <v>175407</v>
       </c>
       <c r="C499" t="s">
         <v>3180</v>
@@ -47207,7 +47207,7 @@
         <v>9501</v>
       </c>
       <c r="B500" t="n">
-        <v>144167</v>
+        <v>175408</v>
       </c>
       <c r="C500" t="s">
         <v>3185</v>
@@ -47274,7 +47274,7 @@
         <v>9501</v>
       </c>
       <c r="B501" t="n">
-        <v>144168</v>
+        <v>175409</v>
       </c>
       <c r="C501" t="s">
         <v>3191</v>
@@ -47345,7 +47345,7 @@
         <v>9501</v>
       </c>
       <c r="B502" t="n">
-        <v>144002</v>
+        <v>144036</v>
       </c>
       <c r="C502" t="s">
         <v>1341</v>
@@ -47491,7 +47491,7 @@
         <v>9501</v>
       </c>
       <c r="B504" t="n">
-        <v>144169</v>
+        <v>175410</v>
       </c>
       <c r="C504" t="s">
         <v>3211</v>
@@ -47704,7 +47704,7 @@
         <v>9501</v>
       </c>
       <c r="B507" t="n">
-        <v>144170</v>
+        <v>175411</v>
       </c>
       <c r="C507" t="s">
         <v>3230</v>
@@ -47771,7 +47771,7 @@
         <v>9501</v>
       </c>
       <c r="B508" t="n">
-        <v>144171</v>
+        <v>175412</v>
       </c>
       <c r="C508" t="s">
         <v>3235</v>
@@ -47917,7 +47917,7 @@
         <v>9501</v>
       </c>
       <c r="B510" t="n">
-        <v>144172</v>
+        <v>175413</v>
       </c>
       <c r="C510" t="s">
         <v>3249</v>
@@ -48130,7 +48130,7 @@
         <v>9501</v>
       </c>
       <c r="B513" t="n">
-        <v>144173</v>
+        <v>175414</v>
       </c>
       <c r="C513" t="s">
         <v>3267</v>
@@ -48349,7 +48349,7 @@
         <v>9501</v>
       </c>
       <c r="B516" t="n">
-        <v>144174</v>
+        <v>175415</v>
       </c>
       <c r="C516" t="s">
         <v>3287</v>
@@ -48637,7 +48637,7 @@
         <v>9501</v>
       </c>
       <c r="B520" t="n">
-        <v>144175</v>
+        <v>175416</v>
       </c>
       <c r="C520" t="s">
         <v>3312</v>
@@ -48996,7 +48996,7 @@
         <v>9501</v>
       </c>
       <c r="B525" t="n">
-        <v>144176</v>
+        <v>175417</v>
       </c>
       <c r="C525" t="s">
         <v>3347</v>
@@ -49213,7 +49213,7 @@
         <v>9501</v>
       </c>
       <c r="B528" t="n">
-        <v>144177</v>
+        <v>175418</v>
       </c>
       <c r="C528" t="s">
         <v>3367</v>
@@ -49426,7 +49426,7 @@
         <v>9501</v>
       </c>
       <c r="B531" t="n">
-        <v>144178</v>
+        <v>175419</v>
       </c>
       <c r="C531" t="s">
         <v>3386</v>
@@ -49639,7 +49639,7 @@
         <v>9501</v>
       </c>
       <c r="B534" t="n">
-        <v>144179</v>
+        <v>175420</v>
       </c>
       <c r="C534" t="s">
         <v>3404</v>
@@ -49714,7 +49714,7 @@
         <v>9501</v>
       </c>
       <c r="B535" t="n">
-        <v>144128</v>
+        <v>144058</v>
       </c>
       <c r="C535" t="s">
         <v>2684</v>
@@ -49856,7 +49856,7 @@
         <v>9501</v>
       </c>
       <c r="B537" t="n">
-        <v>144180</v>
+        <v>175421</v>
       </c>
       <c r="C537" t="s">
         <v>3423</v>
@@ -50002,7 +50002,7 @@
         <v>9501</v>
       </c>
       <c r="B539" t="n">
-        <v>144181</v>
+        <v>175422</v>
       </c>
       <c r="C539" t="s">
         <v>3437</v>
@@ -50069,7 +50069,7 @@
         <v>9501</v>
       </c>
       <c r="B540" t="n">
-        <v>144182</v>
+        <v>175423</v>
       </c>
       <c r="C540" t="s">
         <v>3443</v>
@@ -50140,7 +50140,7 @@
         <v>9501</v>
       </c>
       <c r="B541" t="n">
-        <v>144183</v>
+        <v>175424</v>
       </c>
       <c r="C541" t="s">
         <v>3450</v>
@@ -50211,7 +50211,7 @@
         <v>9501</v>
       </c>
       <c r="B542" t="n">
-        <v>144184</v>
+        <v>175425</v>
       </c>
       <c r="C542" t="s">
         <v>3456</v>
@@ -50353,7 +50353,7 @@
         <v>9501</v>
       </c>
       <c r="B544" t="n">
-        <v>144185</v>
+        <v>175426</v>
       </c>
       <c r="C544" t="s">
         <v>3470</v>
@@ -50566,7 +50566,7 @@
         <v>9501</v>
       </c>
       <c r="B547" t="n">
-        <v>144186</v>
+        <v>175427</v>
       </c>
       <c r="C547" t="s">
         <v>3491</v>
@@ -50637,7 +50637,7 @@
         <v>9501</v>
       </c>
       <c r="B548" t="n">
-        <v>144187</v>
+        <v>175428</v>
       </c>
       <c r="C548" t="s">
         <v>3498</v>
@@ -50708,7 +50708,7 @@
         <v>9501</v>
       </c>
       <c r="B549" t="n">
-        <v>144188</v>
+        <v>175429</v>
       </c>
       <c r="C549" t="s">
         <v>3505</v>
@@ -50779,7 +50779,7 @@
         <v>9501</v>
       </c>
       <c r="B550" t="n">
-        <v>144189</v>
+        <v>175430</v>
       </c>
       <c r="C550" t="s">
         <v>3513</v>
@@ -50850,7 +50850,7 @@
         <v>9501</v>
       </c>
       <c r="B551" t="n">
-        <v>144190</v>
+        <v>175431</v>
       </c>
       <c r="C551" t="s">
         <v>3520</v>
@@ -50911,7 +50911,7 @@
         <v>9501</v>
       </c>
       <c r="B552" t="n">
-        <v>144191</v>
+        <v>175432</v>
       </c>
       <c r="C552" t="s">
         <v>3527</v>
@@ -50982,7 +50982,7 @@
         <v>9501</v>
       </c>
       <c r="B553" t="n">
-        <v>144192</v>
+        <v>175433</v>
       </c>
       <c r="C553" t="s">
         <v>3533</v>
@@ -51053,7 +51053,7 @@
         <v>9501</v>
       </c>
       <c r="B554" t="n">
-        <v>144193</v>
+        <v>175434</v>
       </c>
       <c r="C554" t="s">
         <v>3540</v>
@@ -51124,7 +51124,7 @@
         <v>9501</v>
       </c>
       <c r="B555" t="n">
-        <v>144194</v>
+        <v>175435</v>
       </c>
       <c r="C555" t="s">
         <v>3547</v>
@@ -51185,7 +51185,7 @@
         <v>9501</v>
       </c>
       <c r="B556" t="n">
-        <v>144195</v>
+        <v>175436</v>
       </c>
       <c r="C556" t="s">
         <v>3554</v>
@@ -51252,7 +51252,7 @@
         <v>9501</v>
       </c>
       <c r="B557" t="n">
-        <v>144196</v>
+        <v>175437</v>
       </c>
       <c r="C557" t="s">
         <v>3559</v>
@@ -51394,7 +51394,7 @@
         <v>9501</v>
       </c>
       <c r="B559" t="n">
-        <v>144197</v>
+        <v>175438</v>
       </c>
       <c r="C559" t="s">
         <v>3574</v>
@@ -51465,7 +51465,7 @@
         <v>9501</v>
       </c>
       <c r="B560" t="n">
-        <v>144198</v>
+        <v>175439</v>
       </c>
       <c r="C560" t="s">
         <v>3582</v>
@@ -51534,7 +51534,7 @@
         <v>9501</v>
       </c>
       <c r="B561" t="n">
-        <v>144199</v>
+        <v>175440</v>
       </c>
       <c r="C561" t="s">
         <v>3589</v>
@@ -51605,7 +51605,7 @@
         <v>9501</v>
       </c>
       <c r="B562" t="n">
-        <v>144200</v>
+        <v>175441</v>
       </c>
       <c r="C562" t="s">
         <v>3596</v>
@@ -51676,7 +51676,7 @@
         <v>9501</v>
       </c>
       <c r="B563" t="n">
-        <v>144201</v>
+        <v>175442</v>
       </c>
       <c r="C563" t="s">
         <v>3602</v>
@@ -51747,7 +51747,7 @@
         <v>9501</v>
       </c>
       <c r="B564" t="n">
-        <v>144202</v>
+        <v>175443</v>
       </c>
       <c r="C564" t="s">
         <v>3609</v>
@@ -51818,7 +51818,7 @@
         <v>9501</v>
       </c>
       <c r="B565" t="n">
-        <v>144203</v>
+        <v>175444</v>
       </c>
       <c r="C565" t="s">
         <v>3617</v>
@@ -51885,7 +51885,7 @@
         <v>9501</v>
       </c>
       <c r="B566" t="n">
-        <v>144204</v>
+        <v>175445</v>
       </c>
       <c r="C566" t="s">
         <v>3623</v>
@@ -51956,7 +51956,7 @@
         <v>9501</v>
       </c>
       <c r="B567" t="n">
-        <v>144205</v>
+        <v>175446</v>
       </c>
       <c r="C567" t="s">
         <v>3631</v>
@@ -52027,7 +52027,7 @@
         <v>9501</v>
       </c>
       <c r="B568" t="n">
-        <v>144206</v>
+        <v>175447</v>
       </c>
       <c r="C568" t="s">
         <v>3638</v>
@@ -52098,7 +52098,7 @@
         <v>9501</v>
       </c>
       <c r="B569" t="n">
-        <v>144207</v>
+        <v>175448</v>
       </c>
       <c r="C569" t="s">
         <v>3645</v>
@@ -52167,7 +52167,7 @@
         <v>9501</v>
       </c>
       <c r="B570" t="n">
-        <v>144208</v>
+        <v>175449</v>
       </c>
       <c r="C570" t="s">
         <v>3653</v>
@@ -52234,7 +52234,7 @@
         <v>9501</v>
       </c>
       <c r="B571" t="n">
-        <v>144209</v>
+        <v>175450</v>
       </c>
       <c r="C571" t="s">
         <v>3660</v>
@@ -52301,7 +52301,7 @@
         <v>9501</v>
       </c>
       <c r="B572" t="n">
-        <v>144210</v>
+        <v>175451</v>
       </c>
       <c r="C572" t="s">
         <v>3667</v>
@@ -52368,7 +52368,7 @@
         <v>9501</v>
       </c>
       <c r="B573" t="n">
-        <v>144211</v>
+        <v>175452</v>
       </c>
       <c r="C573" t="s">
         <v>3674</v>
@@ -52435,7 +52435,7 @@
         <v>9501</v>
       </c>
       <c r="B574" t="n">
-        <v>144212</v>
+        <v>175453</v>
       </c>
       <c r="C574" t="s">
         <v>3681</v>
@@ -52502,7 +52502,7 @@
         <v>9501</v>
       </c>
       <c r="B575" t="n">
-        <v>144213</v>
+        <v>175454</v>
       </c>
       <c r="C575" t="s">
         <v>3688</v>
@@ -52569,7 +52569,7 @@
         <v>9501</v>
       </c>
       <c r="B576" t="n">
-        <v>144214</v>
+        <v>175455</v>
       </c>
       <c r="C576" t="s">
         <v>3695</v>
@@ -52640,7 +52640,7 @@
         <v>9501</v>
       </c>
       <c r="B577" t="n">
-        <v>144215</v>
+        <v>175456</v>
       </c>
       <c r="C577" t="s">
         <v>3702</v>
@@ -52711,7 +52711,7 @@
         <v>9501</v>
       </c>
       <c r="B578" t="n">
-        <v>144216</v>
+        <v>175457</v>
       </c>
       <c r="C578" t="s">
         <v>3710</v>
@@ -52782,7 +52782,7 @@
         <v>9501</v>
       </c>
       <c r="B579" t="n">
-        <v>144217</v>
+        <v>175458</v>
       </c>
       <c r="C579" t="s">
         <v>3717</v>
@@ -52853,7 +52853,7 @@
         <v>9501</v>
       </c>
       <c r="B580" t="n">
-        <v>144218</v>
+        <v>175459</v>
       </c>
       <c r="C580" t="s">
         <v>3723</v>
@@ -52924,7 +52924,7 @@
         <v>9501</v>
       </c>
       <c r="B581" t="n">
-        <v>144219</v>
+        <v>175460</v>
       </c>
       <c r="C581" t="s">
         <v>3731</v>
@@ -52995,7 +52995,7 @@
         <v>9501</v>
       </c>
       <c r="B582" t="n">
-        <v>144220</v>
+        <v>175461</v>
       </c>
       <c r="C582" t="s">
         <v>3738</v>
@@ -53066,7 +53066,7 @@
         <v>9501</v>
       </c>
       <c r="B583" t="n">
-        <v>144221</v>
+        <v>175462</v>
       </c>
       <c r="C583" t="s">
         <v>3745</v>
@@ -53137,7 +53137,7 @@
         <v>9501</v>
       </c>
       <c r="B584" t="n">
-        <v>144222</v>
+        <v>175463</v>
       </c>
       <c r="C584" t="s">
         <v>3751</v>
@@ -53208,7 +53208,7 @@
         <v>9501</v>
       </c>
       <c r="B585" t="n">
-        <v>144223</v>
+        <v>175464</v>
       </c>
       <c r="C585" t="s">
         <v>3757</v>
@@ -53279,7 +53279,7 @@
         <v>9501</v>
       </c>
       <c r="B586" t="n">
-        <v>144224</v>
+        <v>175465</v>
       </c>
       <c r="C586" t="s">
         <v>3764</v>
@@ -53340,7 +53340,7 @@
         <v>9501</v>
       </c>
       <c r="B587" t="n">
-        <v>144225</v>
+        <v>175466</v>
       </c>
       <c r="C587" t="s">
         <v>3770</v>
@@ -53411,7 +53411,7 @@
         <v>9501</v>
       </c>
       <c r="B588" t="n">
-        <v>144226</v>
+        <v>175467</v>
       </c>
       <c r="C588" t="s">
         <v>3777</v>
@@ -53482,7 +53482,7 @@
         <v>9501</v>
       </c>
       <c r="B589" t="n">
-        <v>144227</v>
+        <v>175468</v>
       </c>
       <c r="C589" t="s">
         <v>3784</v>
@@ -53553,7 +53553,7 @@
         <v>9501</v>
       </c>
       <c r="B590" t="n">
-        <v>144228</v>
+        <v>175469</v>
       </c>
       <c r="C590" t="s">
         <v>3791</v>
@@ -53695,7 +53695,7 @@
         <v>9501</v>
       </c>
       <c r="B592" t="n">
-        <v>144229</v>
+        <v>175470</v>
       </c>
       <c r="C592" t="s">
         <v>3806</v>
@@ -53766,7 +53766,7 @@
         <v>9501</v>
       </c>
       <c r="B593" t="n">
-        <v>144230</v>
+        <v>175471</v>
       </c>
       <c r="C593" t="s">
         <v>3813</v>
@@ -53906,7 +53906,7 @@
         <v>9501</v>
       </c>
       <c r="B595" t="n">
-        <v>144231</v>
+        <v>175472</v>
       </c>
       <c r="C595" t="s">
         <v>3828</v>
@@ -53977,7 +53977,7 @@
         <v>9501</v>
       </c>
       <c r="B596" t="n">
-        <v>144232</v>
+        <v>175473</v>
       </c>
       <c r="C596" t="s">
         <v>3836</v>
@@ -54048,7 +54048,7 @@
         <v>9501</v>
       </c>
       <c r="B597" t="n">
-        <v>144233</v>
+        <v>175474</v>
       </c>
       <c r="C597" t="s">
         <v>3844</v>
@@ -54119,7 +54119,7 @@
         <v>9501</v>
       </c>
       <c r="B598" t="n">
-        <v>144234</v>
+        <v>175475</v>
       </c>
       <c r="C598" t="s">
         <v>3852</v>
@@ -54190,7 +54190,7 @@
         <v>9501</v>
       </c>
       <c r="B599" t="n">
-        <v>144235</v>
+        <v>175476</v>
       </c>
       <c r="C599" t="s">
         <v>3859</v>
@@ -54261,7 +54261,7 @@
         <v>9501</v>
       </c>
       <c r="B600" t="n">
-        <v>144236</v>
+        <v>175477</v>
       </c>
       <c r="C600" t="s">
         <v>3867</v>
@@ -54332,7 +54332,7 @@
         <v>9501</v>
       </c>
       <c r="B601" t="n">
-        <v>144237</v>
+        <v>175478</v>
       </c>
       <c r="C601" t="s">
         <v>3874</v>
@@ -54397,7 +54397,7 @@
         <v>9501</v>
       </c>
       <c r="B602" t="n">
-        <v>144238</v>
+        <v>175479</v>
       </c>
       <c r="C602" t="s">
         <v>3881</v>
@@ -54468,7 +54468,7 @@
         <v>9501</v>
       </c>
       <c r="B603" t="n">
-        <v>144239</v>
+        <v>175480</v>
       </c>
       <c r="C603" t="s">
         <v>3889</v>
@@ -54525,7 +54525,7 @@
         <v>9501</v>
       </c>
       <c r="B604" t="n">
-        <v>144240</v>
+        <v>175481</v>
       </c>
       <c r="C604" t="s">
         <v>3895</v>
@@ -54596,7 +54596,7 @@
         <v>9501</v>
       </c>
       <c r="B605" t="n">
-        <v>144241</v>
+        <v>175482</v>
       </c>
       <c r="C605" t="s">
         <v>3902</v>
@@ -54653,7 +54653,7 @@
         <v>9501</v>
       </c>
       <c r="B606" t="n">
-        <v>144242</v>
+        <v>175483</v>
       </c>
       <c r="C606" t="s">
         <v>3908</v>
@@ -54724,7 +54724,7 @@
         <v>9501</v>
       </c>
       <c r="B607" t="n">
-        <v>144243</v>
+        <v>175484</v>
       </c>
       <c r="C607" t="s">
         <v>3916</v>
@@ -54791,7 +54791,7 @@
         <v>9501</v>
       </c>
       <c r="B608" t="n">
-        <v>144244</v>
+        <v>175485</v>
       </c>
       <c r="C608" t="s">
         <v>3921</v>
@@ -54848,7 +54848,7 @@
         <v>9501</v>
       </c>
       <c r="B609" t="n">
-        <v>144245</v>
+        <v>175486</v>
       </c>
       <c r="C609" t="s">
         <v>3928</v>
@@ -55037,7 +55037,7 @@
         <v>9501</v>
       </c>
       <c r="B612" t="n">
-        <v>144246</v>
+        <v>175487</v>
       </c>
       <c r="C612" t="s">
         <v>3946</v>
@@ -55266,7 +55266,7 @@
         <v>9501</v>
       </c>
       <c r="B616" t="n">
-        <v>144247</v>
+        <v>175488</v>
       </c>
       <c r="C616" t="s">
         <v>3966</v>
